--- a/table_replication_formatted.xlsx
+++ b/table_replication_formatted.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="584">
   <si>
     <t>cg</t>
   </si>
@@ -115,6 +115,9 @@
     <t>cg07262247</t>
   </si>
   <si>
+    <t>cg00135497</t>
+  </si>
+  <si>
     <t>cg03798942</t>
   </si>
   <si>
@@ -262,6 +265,9 @@
     <t>131,593,730</t>
   </si>
   <si>
+    <t>155,661,849</t>
+  </si>
+  <si>
     <t>128,566,958</t>
   </si>
   <si>
@@ -382,6 +388,9 @@
     <t>0.089 (0.02)</t>
   </si>
   <si>
+    <t>0.22 (0.04)</t>
+  </si>
+  <si>
     <t>0.091 (0.02)</t>
   </si>
   <si>
@@ -607,6 +616,9 @@
     <t>0.31 (0.1)</t>
   </si>
   <si>
+    <t>0.19 (0.1)</t>
+  </si>
+  <si>
     <t>0.076 (0.09)</t>
   </si>
   <si>
@@ -655,9 +667,6 @@
     <t>0.13 (0.1)</t>
   </si>
   <si>
-    <t>0.19 (0.1)</t>
-  </si>
-  <si>
     <t>0.084 (0.09)</t>
   </si>
   <si>
@@ -751,6 +760,9 @@
     <t>PDLIM4</t>
   </si>
   <si>
+    <t>LRAT</t>
+  </si>
+  <si>
     <t>FLI1</t>
   </si>
   <si>
@@ -862,9 +874,15 @@
     <t>cg17024258</t>
   </si>
   <si>
+    <t>cg00502509</t>
+  </si>
+  <si>
     <t>cg14023009</t>
   </si>
   <si>
+    <t>cg08781728</t>
+  </si>
+  <si>
     <t>cg06168149</t>
   </si>
   <si>
@@ -937,9 +955,15 @@
     <t>160,370,982</t>
   </si>
   <si>
+    <t xml:space="preserve">  1,956,121</t>
+  </si>
+  <si>
     <t xml:space="preserve">  1,870,798</t>
   </si>
   <si>
+    <t xml:space="preserve"> 21,882,587</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 50,497,778</t>
   </si>
   <si>
@@ -1048,6 +1072,9 @@
     <t>0.036 (0.04)</t>
   </si>
   <si>
+    <t>-0.081 (0.05)</t>
+  </si>
+  <si>
     <t>-0.2 (0.05)</t>
   </si>
   <si>
@@ -1105,6 +1132,9 @@
     <t>0.066 (0.09)</t>
   </si>
   <si>
+    <t>-0.22 (0.09)</t>
+  </si>
+  <si>
     <t>-0.27 (0.1)</t>
   </si>
   <si>
@@ -1162,9 +1192,15 @@
     <t>VANGL2</t>
   </si>
   <si>
+    <t>MAD1L1</t>
+  </si>
+  <si>
     <t>ARHGEF10</t>
   </si>
   <si>
+    <t>NPM2</t>
+  </si>
+  <si>
     <t>HLA-DPB1</t>
   </si>
   <si>
@@ -1213,6 +1249,9 @@
     <t>cg02509232</t>
   </si>
   <si>
+    <t>cg06379876</t>
+  </si>
+  <si>
     <t>cg11866719</t>
   </si>
   <si>
@@ -1228,6 +1267,9 @@
     <t>cg05046717</t>
   </si>
   <si>
+    <t>cg09383172</t>
+  </si>
+  <si>
     <t>cg18423210</t>
   </si>
   <si>
@@ -1315,6 +1357,9 @@
     <t>134,983,444</t>
   </si>
   <si>
+    <t xml:space="preserve"> 41,220,106</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 60,336,433</t>
   </si>
   <si>
@@ -1330,6 +1375,9 @@
     <t>125,248,264</t>
   </si>
   <si>
+    <t>157,932,921</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 17,756,507</t>
   </si>
   <si>
@@ -1423,6 +1471,9 @@
     <t>-0.03 (0.01)</t>
   </si>
   <si>
+    <t>-0.097 (0.02)</t>
+  </si>
+  <si>
     <t>-0.16 (0.03)</t>
   </si>
   <si>
@@ -1465,21 +1516,21 @@
     <t>-0.045 (0.05)</t>
   </si>
   <si>
-    <t>-0.081 (0.05)</t>
+    <t>-0.14 (0.05)</t>
   </si>
   <si>
     <t>0.064 (0.06)</t>
   </si>
   <si>
-    <t>-0.14 (0.05)</t>
-  </si>
-  <si>
     <t>-0.18 (0.05)</t>
   </si>
   <si>
     <t>-0.11 (0.05)</t>
   </si>
   <si>
+    <t>-0.12 (0.05)</t>
+  </si>
+  <si>
     <t>-0.11 (0.06)</t>
   </si>
   <si>
@@ -1552,6 +1603,9 @@
     <t>0.067 (0.09)</t>
   </si>
   <si>
+    <t>-0.072 (0.09)</t>
+  </si>
+  <si>
     <t>-0.12 (0.09)</t>
   </si>
   <si>
@@ -1564,6 +1618,9 @@
     <t>-0.19 (0.1)</t>
   </si>
   <si>
+    <t>-0.4 (0.1)</t>
+  </si>
+  <si>
     <t>-0.12 (0.1)</t>
   </si>
   <si>
@@ -1624,6 +1681,9 @@
     <t>KNDC1</t>
   </si>
   <si>
+    <t>NFYC</t>
+  </si>
+  <si>
     <t>RTN1</t>
   </si>
   <si>
@@ -1634,6 +1694,9 @@
   </si>
   <si>
     <t>OSBPL11</t>
+  </si>
+  <si>
+    <t>PTPRN2</t>
   </si>
   <si>
     <t>UNC13A</t>
@@ -1790,25 +1853,25 @@
         <v>9.0</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E2" t="n">
         <v>3.4E-20</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3">
@@ -1819,25 +1882,25 @@
         <v>14.0</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E3" t="n">
         <v>1.4000000000000001E-30</v>
       </c>
       <c r="F3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I3" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4">
@@ -1848,25 +1911,25 @@
         <v>4.0</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E4" t="n">
         <v>0.0</v>
       </c>
       <c r="F4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5">
@@ -1877,25 +1940,25 @@
         <v>1.0</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E5" t="n">
         <v>1.1000000000000002E-28</v>
       </c>
       <c r="F5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I5" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6">
@@ -1906,25 +1969,25 @@
         <v>3.0</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E6" t="n">
         <v>0.0</v>
       </c>
       <c r="F6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H6" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I6" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7">
@@ -1935,25 +1998,25 @@
         <v>6.0</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E7" t="n">
         <v>9.099999999999998E-127</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8">
@@ -1964,25 +2027,25 @@
         <v>7.0</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E8" t="n">
         <v>1.6E-18</v>
       </c>
       <c r="F8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9">
@@ -1993,25 +2056,25 @@
         <v>15.0</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E9" t="n">
         <v>0.0</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H9" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I9" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10">
@@ -2022,25 +2085,25 @@
         <v>11.0</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E10" t="n">
         <v>3.6E-9</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H10" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I10" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11">
@@ -2051,25 +2114,25 @@
         <v>22.0</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E11" t="n">
         <v>1.5999999999999996E-100</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H11" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I11" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12">
@@ -2080,25 +2143,25 @@
         <v>2.0</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E12" t="n">
         <v>5.7E-9</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H12" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I12" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13">
@@ -2109,25 +2172,25 @@
         <v>10.0</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E13" t="n">
         <v>4.0E-14</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G13" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H13" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I13" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14">
@@ -2138,25 +2201,25 @@
         <v>22.0</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E14" t="n">
         <v>1.9999999999999998E-25</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G14" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H14" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I14" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15">
@@ -2167,25 +2230,25 @@
         <v>13.0</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E15" t="n">
         <v>1.7E-25</v>
       </c>
       <c r="F15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H15" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I15" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16">
@@ -2196,25 +2259,25 @@
         <v>6.0</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E16" t="n">
         <v>3.8999999999999997E-78</v>
       </c>
       <c r="F16" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G16" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H16" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I16" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17">
@@ -2225,25 +2288,25 @@
         <v>15.0</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E17" t="n">
         <v>1.1E-8</v>
       </c>
       <c r="F17" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G17" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H17" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I17" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18">
@@ -2254,25 +2317,25 @@
         <v>4.0</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E18" t="n">
         <v>1.2999999999999998E-76</v>
       </c>
       <c r="F18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G18" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H18" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I18" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19">
@@ -2283,25 +2346,25 @@
         <v>10.0</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E19" t="n">
         <v>7.4E-15</v>
       </c>
       <c r="F19" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G19" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H19" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I19" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20">
@@ -2312,25 +2375,25 @@
         <v>3.0</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E20" t="n">
         <v>3.599999999999999E-119</v>
       </c>
       <c r="F20" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G20" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H20" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I20" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21">
@@ -2341,25 +2404,25 @@
         <v>20.0</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E21" t="n">
         <v>0.0</v>
       </c>
       <c r="F21" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G21" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H21" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I21" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22">
@@ -2370,25 +2433,25 @@
         <v>18.0</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E22" t="n">
         <v>5.199999999999998E-251</v>
       </c>
       <c r="F22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G22" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H22" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I22" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23">
@@ -2399,25 +2462,25 @@
         <v>16.0</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E23" t="n">
         <v>0.0</v>
       </c>
       <c r="F23" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G23" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H23" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="I23" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24">
@@ -2428,25 +2491,25 @@
         <v>16.0</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E24" t="n">
         <v>0.0</v>
       </c>
       <c r="F24" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G24" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H24" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="I24" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25">
@@ -2457,25 +2520,25 @@
         <v>11.0</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E25" t="n">
         <v>1.9E-8</v>
       </c>
       <c r="F25" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G25" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H25" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="I25" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26">
@@ -2486,25 +2549,25 @@
         <v>5.0</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E26" t="n">
         <v>2.2000000000000002E-27</v>
       </c>
       <c r="F26" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G26" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H26" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I26" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27">
@@ -2515,25 +2578,25 @@
         <v>5.0</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E27" t="n">
         <v>2.2000000000000002E-27</v>
       </c>
       <c r="F27" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G27" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H27" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I27" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28">
@@ -2541,28 +2604,28 @@
         <v>33</v>
       </c>
       <c r="B28" t="n">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E28" t="n">
-        <v>3.1E-23</v>
+        <v>0.31</v>
       </c>
       <c r="F28" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G28" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H28" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I28" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29">
@@ -2570,28 +2633,28 @@
         <v>34</v>
       </c>
       <c r="B29" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E29" t="n">
-        <v>7.4E-40</v>
+        <v>3.1E-23</v>
       </c>
       <c r="F29" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G29" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="H29" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="I29" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30">
@@ -2599,28 +2662,28 @@
         <v>35</v>
       </c>
       <c r="B30" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E30" t="n">
-        <v>1.2E-10</v>
+        <v>7.4E-40</v>
       </c>
       <c r="F30" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G30" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="H30" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I30" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31">
@@ -2628,28 +2691,28 @@
         <v>36</v>
       </c>
       <c r="B31" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E31" t="n">
-        <v>2.3E-44</v>
+        <v>1.2E-10</v>
       </c>
       <c r="F31" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G31" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="H31" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I31" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32">
@@ -2657,28 +2720,28 @@
         <v>37</v>
       </c>
       <c r="B32" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E32" t="n">
-        <v>2.699999999999999E-164</v>
+        <v>2.3E-44</v>
       </c>
       <c r="F32" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G32" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H32" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I32" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33">
@@ -2686,28 +2749,28 @@
         <v>38</v>
       </c>
       <c r="B33" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2E-11</v>
+        <v>2.699999999999999E-164</v>
       </c>
       <c r="F33" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G33" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H33" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I33" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34">
@@ -2715,28 +2778,28 @@
         <v>39</v>
       </c>
       <c r="B34" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E34" t="n">
-        <v>2.1E-8</v>
+        <v>2.2E-11</v>
       </c>
       <c r="F34" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G34" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H34" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I34" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35">
@@ -2744,28 +2807,28 @@
         <v>40</v>
       </c>
       <c r="B35" t="n">
-        <v>22.0</v>
+        <v>11.0</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D35" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E35" t="n">
-        <v>1.5E-13</v>
+        <v>2.1E-8</v>
       </c>
       <c r="F35" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G35" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H35" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I35" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36">
@@ -2773,28 +2836,28 @@
         <v>41</v>
       </c>
       <c r="B36" t="n">
-        <v>3.0</v>
+        <v>22.0</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D36" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E36" t="n">
-        <v>8.799999999999999E-63</v>
+        <v>1.5E-13</v>
       </c>
       <c r="F36" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="G36" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H36" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I36" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37">
@@ -2802,28 +2865,28 @@
         <v>42</v>
       </c>
       <c r="B37" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D37" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E37" t="n">
-        <v>1.6E-35</v>
+        <v>8.799999999999999E-63</v>
       </c>
       <c r="F37" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="G37" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H37" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I37" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38">
@@ -2831,28 +2894,28 @@
         <v>43</v>
       </c>
       <c r="B38" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0</v>
+        <v>1.6E-35</v>
       </c>
       <c r="F38" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="G38" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H38" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I38" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39">
@@ -2860,28 +2923,28 @@
         <v>44</v>
       </c>
       <c r="B39" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="C39" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D39" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E39" t="n">
-        <v>1.599999999999999E-224</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G39" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H39" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I39" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40">
@@ -2889,28 +2952,28 @@
         <v>45</v>
       </c>
       <c r="B40" t="n">
-        <v>11.0</v>
+        <v>3.0</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0</v>
+        <v>1.599999999999999E-224</v>
       </c>
       <c r="F40" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G40" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H40" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="I40" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41">
@@ -2918,28 +2981,28 @@
         <v>46</v>
       </c>
       <c r="B41" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D41" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E41" t="n">
-        <v>2.4E-15</v>
+        <v>0.0</v>
       </c>
       <c r="F41" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G41" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H41" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I41" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42">
@@ -2947,28 +3010,28 @@
         <v>47</v>
       </c>
       <c r="B42" t="n">
-        <v>17.0</v>
+        <v>10.0</v>
       </c>
       <c r="C42" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D42" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E42" t="n">
-        <v>7.799999999999998E-175</v>
+        <v>2.4E-15</v>
       </c>
       <c r="F42" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G42" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="H42" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I42" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43">
@@ -2976,28 +3039,28 @@
         <v>48</v>
       </c>
       <c r="B43" t="n">
-        <v>5.0</v>
+        <v>17.0</v>
       </c>
       <c r="C43" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D43" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E43" t="n">
-        <v>1.4E-14</v>
+        <v>7.799999999999998E-175</v>
       </c>
       <c r="F43" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G43" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H43" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="I43" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="44">
@@ -3005,28 +3068,28 @@
         <v>49</v>
       </c>
       <c r="B44" t="n">
-        <v>16.0</v>
+        <v>5.0</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D44" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E44" t="n">
-        <v>2.2E-49</v>
+        <v>1.4E-14</v>
       </c>
       <c r="F44" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G44" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H44" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="I44" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45">
@@ -3034,28 +3097,28 @@
         <v>50</v>
       </c>
       <c r="B45" t="n">
-        <v>22.0</v>
+        <v>16.0</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D45" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E45" t="n">
-        <v>2.0999999999999997E-137</v>
+        <v>2.2E-49</v>
       </c>
       <c r="F45" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G45" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H45" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="I45" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46">
@@ -3063,28 +3126,28 @@
         <v>51</v>
       </c>
       <c r="B46" t="n">
-        <v>2.0</v>
+        <v>22.0</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E46" t="n">
-        <v>1.3E-12</v>
+        <v>2.0999999999999997E-137</v>
       </c>
       <c r="F46" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G46" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H46" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="I46" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="47">
@@ -3092,28 +3155,28 @@
         <v>52</v>
       </c>
       <c r="B47" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D47" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E47" t="n">
-        <v>2.499999999999999E-170</v>
+        <v>1.3E-12</v>
       </c>
       <c r="F47" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="G47" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="H47" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="I47" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48">
@@ -3121,28 +3184,28 @@
         <v>53</v>
       </c>
       <c r="B48" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="C48" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D48" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E48" t="n">
-        <v>4.499999999999999E-157</v>
+        <v>2.499999999999999E-170</v>
       </c>
       <c r="F48" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G48" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="H48" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I48" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49">
@@ -3150,28 +3213,28 @@
         <v>54</v>
       </c>
       <c r="B49" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D49" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E49" t="n">
-        <v>1.399999999999999E-281</v>
+        <v>4.499999999999999E-157</v>
       </c>
       <c r="F49" t="s">
         <v>135</v>
       </c>
       <c r="G49" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="H49" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I49" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50">
@@ -3179,28 +3242,28 @@
         <v>55</v>
       </c>
       <c r="B50" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E50" t="n">
-        <v>6.0999999999999995E-33</v>
+        <v>1.399999999999999E-281</v>
       </c>
       <c r="F50" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G50" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="H50" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I50" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51">
@@ -3208,28 +3271,28 @@
         <v>56</v>
       </c>
       <c r="B51" t="n">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="C51" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D51" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E51" t="n">
-        <v>1.3E-29</v>
+        <v>6.0999999999999995E-33</v>
       </c>
       <c r="F51" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G51" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H51" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I51" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="52">
@@ -3237,28 +3300,57 @@
         <v>57</v>
       </c>
       <c r="B52" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" t="s">
+        <v>109</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.3E-29</v>
+      </c>
+      <c r="F52" t="s">
+        <v>123</v>
+      </c>
+      <c r="G52" t="s">
+        <v>178</v>
+      </c>
+      <c r="H52" t="s">
+        <v>221</v>
+      </c>
+      <c r="I52" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" t="n">
         <v>11.0</v>
       </c>
-      <c r="C52" t="s">
-        <v>106</v>
-      </c>
-      <c r="D52" t="s">
-        <v>107</v>
-      </c>
-      <c r="E52" t="n">
+      <c r="C53" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" t="n">
         <v>1.5E-26</v>
       </c>
-      <c r="F52" t="s">
-        <v>136</v>
-      </c>
-      <c r="G52" t="s">
-        <v>176</v>
-      </c>
-      <c r="H52" t="s">
-        <v>215</v>
-      </c>
-      <c r="I52" t="s">
-        <v>268</v>
+      <c r="F53" t="s">
+        <v>139</v>
+      </c>
+      <c r="G53" t="s">
+        <v>179</v>
+      </c>
+      <c r="H53" t="s">
+        <v>218</v>
+      </c>
+      <c r="I53" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -3305,756 +3397,814 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B2" t="n">
         <v>12.0</v>
       </c>
       <c r="C2" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D2" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E2" t="n">
         <v>3.4E-26</v>
       </c>
       <c r="F2" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="G2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I2" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B3" t="n">
         <v>12.0</v>
       </c>
       <c r="C3" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D3" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E3" t="n">
         <v>3.4E-26</v>
       </c>
       <c r="F3" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="G3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I3" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B4" t="n">
         <v>19.0</v>
       </c>
       <c r="C4" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D4" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E4" t="n">
         <v>1.6E-21</v>
       </c>
       <c r="F4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G4" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="H4" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="I4" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B5" t="n">
         <v>1.0</v>
       </c>
       <c r="C5" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D5" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E5" t="n">
         <v>1.4999999999999996E-204</v>
       </c>
       <c r="F5" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="G5" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="H5" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="I5" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B6" t="n">
         <v>12.0</v>
       </c>
       <c r="C6" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D6" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E6" t="n">
         <v>1.7999999999999994E-170</v>
       </c>
       <c r="F6" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="G6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H6" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="I6" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B7" t="n">
         <v>6.0</v>
       </c>
       <c r="C7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E7" t="n">
         <v>0.0</v>
       </c>
       <c r="F7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="G7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="I7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B8" t="n">
         <v>19.0</v>
       </c>
       <c r="C8" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D8" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E8" t="n">
         <v>1.5E-9</v>
       </c>
       <c r="F8" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="G8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H8" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="I8" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B9" t="n">
         <v>1.0</v>
       </c>
       <c r="C9" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D9" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E9" t="n">
         <v>1.8E-14</v>
       </c>
       <c r="F9" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="G9" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="H9" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="I9" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B10" t="n">
         <v>2.0</v>
       </c>
       <c r="C10" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D10" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E10" t="n">
         <v>5.7E-45</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="H10" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="I10" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B11" t="n">
         <v>2.0</v>
       </c>
       <c r="C11" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="D11" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E11" t="n">
         <v>1.6E-43</v>
       </c>
       <c r="F11" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="G11" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="H11" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I11" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B12" t="n">
         <v>10.0</v>
       </c>
       <c r="C12" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D12" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E12" t="n">
         <v>6.199999999999999E-24</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="H12" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="I12" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B13" t="n">
         <v>19.0</v>
       </c>
       <c r="C13" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D13" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E13" t="n">
         <v>0.0</v>
       </c>
       <c r="F13" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="G13" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H13" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="I13" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B14" t="n">
         <v>2.0</v>
       </c>
       <c r="C14" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D14" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E14" t="n">
         <v>1.1E-46</v>
       </c>
       <c r="F14" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G14" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="H14" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I14" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B15" t="n">
         <v>1.0</v>
       </c>
       <c r="C15" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D15" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E15" t="n">
         <v>2.4E-16</v>
       </c>
       <c r="F15" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="G15" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="H15" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="I15" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B16" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C16" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D16" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E16" t="n">
-        <v>7.1E-13</v>
+        <v>0.1</v>
       </c>
       <c r="F16" t="s">
-        <v>328</v>
+        <v>131</v>
       </c>
       <c r="G16" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="H16" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="I16" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B17" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="C17" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D17" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0</v>
+        <v>7.1E-13</v>
       </c>
       <c r="F17" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="G17" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="H17" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="I17" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B18" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="C18" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D18" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E18" t="n">
-        <v>3.9E-8</v>
+        <v>0.0056</v>
       </c>
       <c r="F18" t="s">
-        <v>330</v>
+        <v>128</v>
       </c>
       <c r="G18" t="s">
-        <v>346</v>
+        <v>143</v>
       </c>
       <c r="H18" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="I18" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B19" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="C19" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D19" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E19" t="n">
-        <v>2.4999999999999994E-173</v>
+        <v>0.0</v>
       </c>
       <c r="F19" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="G19" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="H19" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="I19" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B20" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="C20" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D20" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E20" t="n">
-        <v>1.0E-17</v>
+        <v>3.9E-8</v>
       </c>
       <c r="F20" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="G20" t="s">
-        <v>148</v>
+        <v>355</v>
       </c>
       <c r="H20" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="I20" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B21" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C21" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D21" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0</v>
+        <v>2.4999999999999994E-173</v>
       </c>
       <c r="F21" t="s">
-        <v>125</v>
+        <v>339</v>
       </c>
       <c r="G21" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H21" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="I21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B22" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="C22" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D22" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E22" t="n">
-        <v>5.4E-15</v>
+        <v>1.0E-17</v>
       </c>
       <c r="F22" t="s">
-        <v>132</v>
+        <v>340</v>
       </c>
       <c r="G22" t="s">
-        <v>349</v>
+        <v>151</v>
       </c>
       <c r="H22" t="s">
-        <v>366</v>
+        <v>202</v>
       </c>
       <c r="I22" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B23" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="C23" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="D23" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E23" t="n">
-        <v>4.0E-23</v>
+        <v>0.0</v>
       </c>
       <c r="F23" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G23" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="H23" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="I23" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B24" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="C24" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="D24" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E24" t="n">
-        <v>5.599999999999999E-112</v>
+        <v>5.4E-15</v>
       </c>
       <c r="F24" t="s">
-        <v>327</v>
+        <v>135</v>
       </c>
       <c r="G24" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="H24" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="I24" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B25" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="C25" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D25" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E25" t="n">
-        <v>3.0E-23</v>
+        <v>4.0E-23</v>
       </c>
       <c r="F25" t="s">
-        <v>333</v>
+        <v>135</v>
       </c>
       <c r="G25" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="H25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I25" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B26" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="C26" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D26" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E26" t="n">
-        <v>8.0E-24</v>
+        <v>5.599999999999999E-112</v>
       </c>
       <c r="F26" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G26" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="H26" t="s">
-        <v>183</v>
+        <v>377</v>
       </c>
       <c r="I26" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B27" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>324</v>
+      </c>
+      <c r="D27" t="s">
+        <v>327</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.0E-23</v>
+      </c>
+      <c r="F27" t="s">
+        <v>341</v>
+      </c>
+      <c r="G27" t="s">
+        <v>361</v>
+      </c>
+      <c r="H27" t="s">
+        <v>378</v>
+      </c>
+      <c r="I27" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>298</v>
+      </c>
+      <c r="B28" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>325</v>
+      </c>
+      <c r="D28" t="s">
+        <v>327</v>
+      </c>
+      <c r="E28" t="n">
+        <v>8.0E-24</v>
+      </c>
+      <c r="F28" t="s">
+        <v>342</v>
+      </c>
+      <c r="G28" t="s">
+        <v>362</v>
+      </c>
+      <c r="H28" t="s">
+        <v>186</v>
+      </c>
+      <c r="I28" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>299</v>
+      </c>
+      <c r="B29" t="n">
         <v>6.0</v>
       </c>
-      <c r="C27" t="s">
-        <v>318</v>
-      </c>
-      <c r="D27" t="s">
-        <v>319</v>
-      </c>
-      <c r="E27" t="n">
+      <c r="C29" t="s">
+        <v>326</v>
+      </c>
+      <c r="D29" t="s">
+        <v>327</v>
+      </c>
+      <c r="E29" t="n">
         <v>7.5E-57</v>
       </c>
-      <c r="F27" t="s">
-        <v>335</v>
-      </c>
-      <c r="G27" t="s">
-        <v>354</v>
-      </c>
-      <c r="H27" t="s">
-        <v>207</v>
-      </c>
-      <c r="I27" t="s">
-        <v>391</v>
+      <c r="F29" t="s">
+        <v>343</v>
+      </c>
+      <c r="G29" t="s">
+        <v>363</v>
+      </c>
+      <c r="H29" t="s">
+        <v>211</v>
+      </c>
+      <c r="I29" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -4101,1017 +4251,1075 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="B2" t="n">
         <v>11.0</v>
       </c>
       <c r="C2" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="D2" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E2" t="n">
         <v>9.299999999999999E-33</v>
       </c>
       <c r="F2" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="G2" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="H2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I2" t="s">
-        <v>529</v>
+        <v>548</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="B3" t="n">
         <v>16.0</v>
       </c>
       <c r="C3" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="D3" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E3" t="n">
         <v>1.8999999999999998E-35</v>
       </c>
       <c r="F3" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="G3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I3" t="s">
-        <v>530</v>
+        <v>549</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="B4" t="n">
         <v>2.0</v>
       </c>
       <c r="C4" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="D4" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E4" t="n">
         <v>0.0</v>
       </c>
       <c r="F4" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="G4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H4" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="I4" t="s">
-        <v>531</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="B5" t="n">
         <v>6.0</v>
       </c>
       <c r="C5" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="D5" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E5" t="n">
         <v>2.5999999999999994E-109</v>
       </c>
       <c r="F5" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="G5" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="H5" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="I5" t="s">
-        <v>532</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="B6" t="n">
         <v>3.0</v>
       </c>
       <c r="C6" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="D6" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E6" t="n">
         <v>3.0999999999999996E-84</v>
       </c>
       <c r="F6" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="G6" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="H6" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="I6" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="B7" t="n">
         <v>6.0</v>
       </c>
       <c r="C7" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="D7" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E7" t="n">
         <v>1.6999999999999998E-48</v>
       </c>
       <c r="F7" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="G7" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="H7" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="I7" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="B8" t="n">
         <v>10.0</v>
       </c>
       <c r="C8" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="D8" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E8" t="n">
         <v>7.299999999999999E-44</v>
       </c>
       <c r="F8" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="G8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H8" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="I8" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="B9" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="C9" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="D9" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E9" t="n">
-        <v>2.499999999999999E-161</v>
+        <v>0.019</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>336</v>
       </c>
       <c r="G9" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="H9" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="I9" t="s">
-        <v>536</v>
+        <v>555</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="B10" t="n">
-        <v>3.0</v>
+        <v>14.0</v>
       </c>
       <c r="C10" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="D10" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E10" t="n">
-        <v>3.1E-52</v>
+        <v>2.499999999999999E-161</v>
       </c>
       <c r="F10" t="s">
-        <v>327</v>
+        <v>132</v>
       </c>
       <c r="G10" t="s">
-        <v>484</v>
+        <v>352</v>
       </c>
       <c r="H10" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="I10" t="s">
-        <v>537</v>
+        <v>556</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="B11" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="C11" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="D11" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E11" t="n">
-        <v>2.1999999999999988E-197</v>
+        <v>3.1E-52</v>
       </c>
       <c r="F11" t="s">
-        <v>467</v>
+        <v>335</v>
       </c>
       <c r="G11" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="H11" t="s">
-        <v>203</v>
+        <v>531</v>
       </c>
       <c r="I11" t="s">
-        <v>538</v>
+        <v>557</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="B12" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="C12" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="D12" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E12" t="n">
-        <v>7.199999999999997E-230</v>
+        <v>2.1999999999999988E-197</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>483</v>
       </c>
       <c r="G12" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="H12" t="s">
-        <v>514</v>
+        <v>207</v>
       </c>
       <c r="I12" t="s">
-        <v>531</v>
+        <v>558</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="B13" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C13" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="D13" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E13" t="n">
-        <v>5.299999999999998E-246</v>
+        <v>7.199999999999997E-230</v>
       </c>
       <c r="F13" t="s">
-        <v>468</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="H13" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="I13" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="B14" t="n">
-        <v>19.0</v>
+        <v>3.0</v>
       </c>
       <c r="C14" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="D14" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E14" t="n">
-        <v>5.6E-10</v>
+        <v>5.299999999999998E-246</v>
       </c>
       <c r="F14" t="s">
-        <v>328</v>
+        <v>484</v>
       </c>
       <c r="G14" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="H14" t="s">
-        <v>195</v>
+        <v>533</v>
       </c>
       <c r="I14" t="s">
-        <v>540</v>
+        <v>559</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="B15" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="C15" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="D15" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E15" t="n">
-        <v>3.2E-51</v>
+        <v>0.024</v>
       </c>
       <c r="F15" t="s">
-        <v>119</v>
+        <v>485</v>
       </c>
       <c r="G15" t="s">
-        <v>170</v>
+        <v>504</v>
       </c>
       <c r="H15" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="I15" t="s">
-        <v>541</v>
+        <v>560</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="B16" t="n">
-        <v>11.0</v>
+        <v>19.0</v>
       </c>
       <c r="C16" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="D16" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E16" t="n">
-        <v>1.1999999999999993E-257</v>
+        <v>5.6E-10</v>
       </c>
       <c r="F16" t="s">
-        <v>469</v>
+        <v>336</v>
       </c>
       <c r="G16" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="H16" t="s">
-        <v>517</v>
+        <v>198</v>
       </c>
       <c r="I16" t="s">
-        <v>542</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="B17" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="C17" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="D17" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0</v>
+        <v>3.2E-51</v>
       </c>
       <c r="F17" t="s">
-        <v>470</v>
+        <v>121</v>
       </c>
       <c r="G17" t="s">
-        <v>490</v>
+        <v>173</v>
       </c>
       <c r="H17" t="s">
-        <v>515</v>
+        <v>535</v>
       </c>
       <c r="I17" t="s">
-        <v>543</v>
+        <v>562</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="B18" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="C18" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="D18" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0</v>
+        <v>1.1999999999999993E-257</v>
       </c>
       <c r="F18" t="s">
-        <v>329</v>
+        <v>486</v>
       </c>
       <c r="G18" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="H18" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="I18" t="s">
-        <v>544</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="B19" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="C19" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="D19" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E19" t="n">
-        <v>2.5999999999999996E-99</v>
+        <v>0.0</v>
       </c>
       <c r="F19" t="s">
-        <v>119</v>
+        <v>487</v>
       </c>
       <c r="G19" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="H19" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="I19" t="s">
-        <v>545</v>
+        <v>564</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="B20" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="C20" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="D20" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E20" t="n">
-        <v>1.0999999999999998E-82</v>
+        <v>0.0</v>
       </c>
       <c r="F20" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="G20" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="H20" t="s">
-        <v>520</v>
+        <v>537</v>
       </c>
       <c r="I20" t="s">
-        <v>546</v>
+        <v>565</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="B21" t="n">
         <v>1.0</v>
       </c>
       <c r="C21" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="D21" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E21" t="n">
-        <v>3.0999999999999996E-103</v>
+        <v>2.5999999999999996E-99</v>
       </c>
       <c r="F21" t="s">
-        <v>471</v>
+        <v>121</v>
       </c>
       <c r="G21" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="H21" t="s">
-        <v>521</v>
+        <v>538</v>
       </c>
       <c r="I21" t="s">
-        <v>547</v>
+        <v>566</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="B22" t="n">
         <v>12.0</v>
       </c>
       <c r="C22" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="D22" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E22" t="n">
-        <v>1.6E-34</v>
+        <v>1.0999999999999998E-82</v>
       </c>
       <c r="F22" t="s">
-        <v>131</v>
+        <v>335</v>
       </c>
       <c r="G22" t="s">
-        <v>346</v>
+        <v>510</v>
       </c>
       <c r="H22" t="s">
-        <v>205</v>
+        <v>539</v>
       </c>
       <c r="I22" t="s">
-        <v>548</v>
+        <v>567</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="B23" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="C23" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D23" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E23" t="n">
-        <v>1.6E-34</v>
+        <v>3.0999999999999996E-103</v>
       </c>
       <c r="F23" t="s">
-        <v>131</v>
+        <v>488</v>
       </c>
       <c r="G23" t="s">
-        <v>346</v>
+        <v>511</v>
       </c>
       <c r="H23" t="s">
-        <v>205</v>
+        <v>540</v>
       </c>
       <c r="I23" t="s">
-        <v>549</v>
+        <v>568</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="B24" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="C24" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="D24" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2.899999999999999E-128</v>
+        <v>1.6E-34</v>
       </c>
       <c r="F24" t="s">
-        <v>472</v>
+        <v>134</v>
       </c>
       <c r="G24" t="s">
-        <v>495</v>
+        <v>355</v>
       </c>
       <c r="H24" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="I24" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="B25" t="n">
-        <v>17.0</v>
+        <v>12.0</v>
       </c>
       <c r="C25" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="D25" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E25" t="n">
-        <v>5.1E-16</v>
+        <v>1.6E-34</v>
       </c>
       <c r="F25" t="s">
-        <v>473</v>
+        <v>134</v>
       </c>
       <c r="G25" t="s">
-        <v>496</v>
+        <v>355</v>
       </c>
       <c r="H25" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="I25" t="s">
-        <v>551</v>
+        <v>570</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="B26" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C26" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="D26" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E26" t="n">
-        <v>2.4E-123</v>
+        <v>2.899999999999999E-128</v>
       </c>
       <c r="F26" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="G26" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="H26" t="s">
-        <v>522</v>
+        <v>196</v>
       </c>
       <c r="I26" t="s">
-        <v>552</v>
+        <v>571</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="B27" t="n">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
       <c r="C27" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="D27" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E27" t="n">
-        <v>1.9E-10</v>
+        <v>5.1E-16</v>
       </c>
       <c r="F27" t="s">
-        <v>115</v>
+        <v>490</v>
       </c>
       <c r="G27" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="H27" t="s">
-        <v>523</v>
+        <v>190</v>
       </c>
       <c r="I27" t="s">
-        <v>553</v>
+        <v>572</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="B28" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C28" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="D28" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E28" t="n">
-        <v>4.3E-50</v>
+        <v>2.4E-123</v>
       </c>
       <c r="F28" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="G28" t="s">
-        <v>137</v>
+        <v>514</v>
       </c>
       <c r="H28" t="s">
-        <v>364</v>
+        <v>541</v>
       </c>
       <c r="I28" t="s">
-        <v>554</v>
+        <v>573</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="B29" t="n">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C29" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="D29" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E29" t="n">
-        <v>3.6E-15</v>
+        <v>1.9E-10</v>
       </c>
       <c r="F29" t="s">
-        <v>474</v>
+        <v>117</v>
       </c>
       <c r="G29" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="H29" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="I29" t="s">
-        <v>555</v>
+        <v>574</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="B30" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="C30" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="D30" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0</v>
+        <v>4.3E-50</v>
       </c>
       <c r="F30" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="G30" t="s">
-        <v>500</v>
+        <v>140</v>
       </c>
       <c r="H30" t="s">
-        <v>206</v>
+        <v>374</v>
       </c>
       <c r="I30" t="s">
-        <v>556</v>
+        <v>575</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="B31" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="C31" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="D31" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E31" t="n">
-        <v>1.5E-16</v>
+        <v>3.6E-15</v>
       </c>
       <c r="F31" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="G31" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="H31" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="I31" t="s">
-        <v>557</v>
+        <v>576</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="B32" t="n">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
       <c r="C32" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="D32" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E32" t="n">
-        <v>3.5E-8</v>
+        <v>0.0</v>
       </c>
       <c r="F32" t="s">
-        <v>130</v>
+        <v>493</v>
       </c>
       <c r="G32" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="H32" t="s">
-        <v>526</v>
+        <v>210</v>
       </c>
       <c r="I32" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="B33" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="C33" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="D33" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E33" t="n">
-        <v>5.2E-11</v>
+        <v>1.5E-16</v>
       </c>
       <c r="F33" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="G33" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="H33" t="s">
-        <v>209</v>
+        <v>544</v>
       </c>
       <c r="I33" t="s">
-        <v>559</v>
+        <v>578</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="B34" t="n">
-        <v>20.0</v>
+        <v>1.0</v>
       </c>
       <c r="C34" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="D34" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0</v>
+        <v>3.5E-8</v>
       </c>
       <c r="F34" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G34" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="H34" t="s">
-        <v>213</v>
+        <v>545</v>
       </c>
       <c r="I34" t="s">
-        <v>560</v>
+        <v>579</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="B35" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="C35" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D35" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E35" t="n">
-        <v>4.199999999999999E-84</v>
+        <v>5.2E-11</v>
       </c>
       <c r="F35" t="s">
-        <v>119</v>
+        <v>495</v>
       </c>
       <c r="G35" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="H35" t="s">
-        <v>527</v>
+        <v>213</v>
       </c>
       <c r="I35" t="s">
-        <v>561</v>
+        <v>580</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="B36" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>473</v>
+      </c>
+      <c r="D36" t="s">
+        <v>476</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>139</v>
+      </c>
+      <c r="G36" t="s">
+        <v>521</v>
+      </c>
+      <c r="H36" t="s">
+        <v>200</v>
+      </c>
+      <c r="I36" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>438</v>
+      </c>
+      <c r="B37" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>474</v>
+      </c>
+      <c r="D37" t="s">
+        <v>476</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4.199999999999999E-84</v>
+      </c>
+      <c r="F37" t="s">
+        <v>121</v>
+      </c>
+      <c r="G37" t="s">
+        <v>522</v>
+      </c>
+      <c r="H37" t="s">
+        <v>546</v>
+      </c>
+      <c r="I37" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>439</v>
+      </c>
+      <c r="B38" t="n">
         <v>6.0</v>
       </c>
-      <c r="C36" t="s">
-        <v>459</v>
-      </c>
-      <c r="D36" t="s">
-        <v>460</v>
-      </c>
-      <c r="E36" t="n">
+      <c r="C38" t="s">
+        <v>475</v>
+      </c>
+      <c r="D38" t="s">
+        <v>476</v>
+      </c>
+      <c r="E38" t="n">
         <v>2.3999999999999993E-158</v>
       </c>
-      <c r="F36" t="s">
-        <v>132</v>
-      </c>
-      <c r="G36" t="s">
-        <v>506</v>
-      </c>
-      <c r="H36" t="s">
-        <v>528</v>
-      </c>
-      <c r="I36" t="s">
-        <v>562</v>
+      <c r="F38" t="s">
+        <v>135</v>
+      </c>
+      <c r="G38" t="s">
+        <v>523</v>
+      </c>
+      <c r="H38" t="s">
+        <v>547</v>
+      </c>
+      <c r="I38" t="s">
+        <v>583</v>
       </c>
     </row>
   </sheetData>
